--- a/Clase 6b - Paneles/Armado de Paneles.xlsx
+++ b/Clase 6b - Paneles/Armado de Paneles.xlsx
@@ -487,9 +487,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1090,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23:AE23"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1131,2042 +1130,2042 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" thickBot="1">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="O1" s="51" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="O1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="AA1" s="51" t="s">
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="AA1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1">
-      <c r="B2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AA2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AE2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AF2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AG2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="18" t="s">
+      <c r="AH2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="18" t="s">
+      <c r="AI2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AJ2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="33" t="s">
+      <c r="AK2" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="15.75" thickBot="1">
-      <c r="A3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2016</v>
-      </c>
-      <c r="F3" s="7">
-        <v>2</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>2</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2016</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
         <v>53</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>6000</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>2016</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>2</v>
-      </c>
-      <c r="AF3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="7">
-        <v>2</v>
-      </c>
-      <c r="AH3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="7">
+      <c r="AB3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>2016</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="6">
         <v>53</v>
       </c>
-      <c r="AJ3" s="9">
+      <c r="AJ3" s="8">
         <v>6000</v>
       </c>
-      <c r="AK3" s="9">
+      <c r="AK3" s="8">
         <f t="shared" ref="AK3:AK16" si="0">Y8-1</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="15.75" thickBot="1">
-      <c r="A4" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2016</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4">
         <v>42</v>
       </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="10" t="s">
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>2016</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="5">
+      <c r="AB4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>2016</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="4">
         <v>42</v>
       </c>
-      <c r="AJ4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="11">
+      <c r="AJ4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="15.75" thickBot="1">
-      <c r="A5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2016</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
         <v>18</v>
       </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="10" t="s">
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AB5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>3</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>2016</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>2</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>3</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="5">
+      <c r="AB5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>2016</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="4">
         <v>18</v>
       </c>
-      <c r="AJ5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="11">
+      <c r="AJ5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="15.75" thickBot="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2016</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
         <v>32</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <v>20000</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="AA6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>2016</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="2">
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>2016</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1">
         <v>32</v>
       </c>
-      <c r="AJ6" s="13">
+      <c r="AJ6" s="12">
         <v>20000</v>
       </c>
-      <c r="AK6" s="13">
+      <c r="AK6" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="15.75" thickBot="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15">
-        <v>2</v>
-      </c>
-      <c r="E7" s="15">
-        <v>2016</v>
-      </c>
-      <c r="F7" s="15">
-        <v>2</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15">
-        <v>3</v>
-      </c>
-      <c r="I7" s="15">
-        <v>2</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2016</v>
+      </c>
+      <c r="F7" s="14">
+        <v>2</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
+        <v>3</v>
+      </c>
+      <c r="I7" s="14">
+        <v>2</v>
+      </c>
+      <c r="J7" s="14">
         <v>34</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>15600</v>
       </c>
-      <c r="O7" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="18" t="s">
+      <c r="O7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="18" t="s">
+      <c r="S7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="T7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="U7" s="18" t="s">
+      <c r="U7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="V7" s="18" t="s">
+      <c r="V7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="W7" s="18" t="s">
+      <c r="W7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="X7" s="19" t="s">
+      <c r="X7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Y7" s="33" t="s">
+      <c r="Y7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AA7" s="14" t="s">
+      <c r="AA7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AB7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="15">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="15">
-        <v>2016</v>
-      </c>
-      <c r="AE7" s="15">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="15">
-        <v>3</v>
-      </c>
-      <c r="AH7" s="15">
-        <v>2</v>
-      </c>
-      <c r="AI7" s="15">
+      <c r="AB7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>2016</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="14">
         <v>34</v>
       </c>
-      <c r="AJ7" s="16">
+      <c r="AJ7" s="15">
         <v>15600</v>
       </c>
-      <c r="AK7" s="16">
+      <c r="AK7" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="15.75" thickBot="1">
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>1</v>
-      </c>
-      <c r="R8" s="8">
-        <v>2016</v>
-      </c>
-      <c r="S8" s="7">
-        <v>2</v>
-      </c>
-      <c r="T8" s="7">
-        <v>1</v>
-      </c>
-      <c r="U8" s="7">
-        <v>2</v>
-      </c>
-      <c r="V8" s="7">
-        <v>1</v>
-      </c>
-      <c r="W8" s="7">
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
+      <c r="R8" s="7">
+        <v>2016</v>
+      </c>
+      <c r="S8" s="6">
+        <v>2</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6">
+        <v>2</v>
+      </c>
+      <c r="V8" s="6">
+        <v>1</v>
+      </c>
+      <c r="W8" s="6">
         <v>53</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="8">
         <v>6000</v>
       </c>
-      <c r="Y8" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="6" t="s">
+      <c r="Y8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AB8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>2016</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>3</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="7">
-        <v>3</v>
-      </c>
-      <c r="AH8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="7">
+      <c r="AB8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>2016</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="6">
         <v>53</v>
       </c>
-      <c r="AJ8" s="9">
+      <c r="AJ8" s="8">
         <v>8000</v>
       </c>
-      <c r="AK8" s="9">
+      <c r="AK8" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="15.75" thickBot="1">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="O9" s="10" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="O9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>2</v>
-      </c>
-      <c r="R9" s="4">
-        <v>2016</v>
-      </c>
-      <c r="S9" s="5">
-        <v>2</v>
-      </c>
-      <c r="T9" s="5">
-        <v>3</v>
-      </c>
-      <c r="U9" s="5">
-        <v>0</v>
-      </c>
-      <c r="V9" s="5">
-        <v>2</v>
-      </c>
-      <c r="W9" s="5">
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2</v>
+      </c>
+      <c r="R9" s="3">
+        <v>2016</v>
+      </c>
+      <c r="S9" s="4">
+        <v>2</v>
+      </c>
+      <c r="T9" s="4">
+        <v>3</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>2</v>
+      </c>
+      <c r="W9" s="4">
         <v>42</v>
       </c>
-      <c r="X9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="10" t="s">
+      <c r="X9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AB9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>2016</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>3</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>3</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="5">
-        <v>2</v>
-      </c>
-      <c r="AI9" s="5">
+      <c r="AB9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>2016</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="4">
         <v>42</v>
       </c>
-      <c r="AJ9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="11">
+      <c r="AJ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15.75" thickBot="1">
-      <c r="B10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="B10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>3</v>
-      </c>
-      <c r="R10" s="4">
-        <v>2016</v>
-      </c>
-      <c r="S10" s="5">
-        <v>2</v>
-      </c>
-      <c r="T10" s="5">
-        <v>3</v>
-      </c>
-      <c r="U10" s="5">
-        <v>0</v>
-      </c>
-      <c r="V10" s="5">
-        <v>1</v>
-      </c>
-      <c r="W10" s="5">
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2016</v>
+      </c>
+      <c r="S10" s="4">
+        <v>2</v>
+      </c>
+      <c r="T10" s="4">
+        <v>3</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>1</v>
+      </c>
+      <c r="W10" s="4">
         <v>18</v>
       </c>
-      <c r="X10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="10" t="s">
+      <c r="X10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AB10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>3</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>2016</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>3</v>
-      </c>
-      <c r="AF10" s="5">
-        <v>3</v>
-      </c>
-      <c r="AG10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="5">
+      <c r="AB10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>2016</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>3</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="4">
         <v>18</v>
       </c>
-      <c r="AJ10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="11">
+      <c r="AJ10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="15.75" thickBot="1">
-      <c r="A11" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2016</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2016</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
         <v>53</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>8000</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2">
-        <v>2016</v>
-      </c>
-      <c r="S11" s="2">
-        <v>2</v>
-      </c>
-      <c r="T11" s="2">
-        <v>1</v>
-      </c>
-      <c r="U11" s="2">
-        <v>3</v>
-      </c>
-      <c r="V11" s="2">
-        <v>1</v>
-      </c>
-      <c r="W11" s="2">
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>3</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
         <v>32</v>
       </c>
-      <c r="X11" s="13">
+      <c r="X11" s="12">
         <v>20000</v>
       </c>
-      <c r="Y11" s="13">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="21" t="s">
+      <c r="Y11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AB11" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="22">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="23">
-        <v>2016</v>
-      </c>
-      <c r="AE11" s="22">
-        <v>3</v>
-      </c>
-      <c r="AF11" s="22">
-        <v>3</v>
-      </c>
-      <c r="AG11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="22">
+      <c r="AB11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="22">
+        <v>2016</v>
+      </c>
+      <c r="AE11" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="21">
+        <v>3</v>
+      </c>
+      <c r="AG11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="21">
         <v>32</v>
       </c>
-      <c r="AJ11" s="24">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="39">
+      <c r="AJ11" s="23">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="15.75" thickBot="1">
-      <c r="A12" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2016</v>
-      </c>
-      <c r="F12" s="5">
-        <v>3</v>
-      </c>
-      <c r="G12" s="5">
-        <v>3</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>2</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4">
         <v>42</v>
       </c>
-      <c r="K12" s="11">
-        <v>0</v>
-      </c>
-      <c r="O12" s="14" t="s">
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>2</v>
-      </c>
-      <c r="R12" s="15">
-        <v>2016</v>
-      </c>
-      <c r="S12" s="15">
-        <v>2</v>
-      </c>
-      <c r="T12" s="15">
-        <v>1</v>
-      </c>
-      <c r="U12" s="15">
-        <v>3</v>
-      </c>
-      <c r="V12" s="15">
-        <v>2</v>
-      </c>
-      <c r="W12" s="15">
+      <c r="P12" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>2</v>
+      </c>
+      <c r="R12" s="14">
+        <v>2016</v>
+      </c>
+      <c r="S12" s="14">
+        <v>2</v>
+      </c>
+      <c r="T12" s="14">
+        <v>1</v>
+      </c>
+      <c r="U12" s="14">
+        <v>3</v>
+      </c>
+      <c r="V12" s="14">
+        <v>2</v>
+      </c>
+      <c r="W12" s="14">
         <v>34</v>
       </c>
-      <c r="X12" s="16">
+      <c r="X12" s="15">
         <v>15600</v>
       </c>
-      <c r="Y12" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="25" t="s">
+      <c r="Y12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AB12" s="26">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="26">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="27">
-        <v>2016</v>
-      </c>
-      <c r="AE12" s="26">
-        <v>3</v>
-      </c>
-      <c r="AF12" s="26">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="26">
-        <v>3</v>
-      </c>
-      <c r="AH12" s="26">
-        <v>2</v>
-      </c>
-      <c r="AI12" s="26">
+      <c r="AB12" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="25">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="26">
+        <v>2016</v>
+      </c>
+      <c r="AE12" s="25">
+        <v>3</v>
+      </c>
+      <c r="AF12" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="25">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="25">
+        <v>2</v>
+      </c>
+      <c r="AI12" s="25">
         <v>34</v>
       </c>
-      <c r="AJ12" s="28">
+      <c r="AJ12" s="27">
         <v>9000</v>
       </c>
-      <c r="AK12" s="40">
+      <c r="AK12" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15.75" thickBot="1">
-      <c r="A13" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2016</v>
-      </c>
-      <c r="F13" s="5">
-        <v>3</v>
-      </c>
-      <c r="G13" s="5">
-        <v>3</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
         <v>18</v>
       </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6" t="s">
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P13" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>1</v>
-      </c>
-      <c r="R13" s="8">
-        <v>2016</v>
-      </c>
-      <c r="S13" s="7">
-        <v>3</v>
-      </c>
-      <c r="T13" s="7">
-        <v>1</v>
-      </c>
-      <c r="U13" s="7">
-        <v>3</v>
-      </c>
-      <c r="V13" s="7">
-        <v>1</v>
-      </c>
-      <c r="W13" s="7">
+      <c r="P13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
+      <c r="R13" s="7">
+        <v>2016</v>
+      </c>
+      <c r="S13" s="6">
+        <v>3</v>
+      </c>
+      <c r="T13" s="6">
+        <v>1</v>
+      </c>
+      <c r="U13" s="6">
+        <v>3</v>
+      </c>
+      <c r="V13" s="6">
+        <v>1</v>
+      </c>
+      <c r="W13" s="6">
         <v>53</v>
       </c>
-      <c r="X13" s="9">
+      <c r="X13" s="8">
         <v>8000</v>
       </c>
-      <c r="Y13" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="1" t="s">
+      <c r="Y13" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AB13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>2016</v>
-      </c>
-      <c r="AE13" s="2">
+      <c r="AB13" s="41">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="41">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="41">
+        <v>2016</v>
+      </c>
+      <c r="AE13" s="41">
         <v>4</v>
       </c>
-      <c r="AF13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="2">
+      <c r="AF13" s="41">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="41">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="41">
         <v>42</v>
       </c>
-      <c r="AJ13" s="20">
+      <c r="AJ13" s="43">
         <v>15000</v>
       </c>
-      <c r="AK13" s="37">
+      <c r="AK13" s="36">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="22">
-        <v>1</v>
-      </c>
-      <c r="D14" s="22">
-        <v>1</v>
-      </c>
-      <c r="E14" s="23">
-        <v>2016</v>
-      </c>
-      <c r="F14" s="22">
-        <v>3</v>
-      </c>
-      <c r="G14" s="22">
-        <v>3</v>
-      </c>
-      <c r="H14" s="22">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22">
-        <v>1</v>
-      </c>
-      <c r="J14" s="22">
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1</v>
+      </c>
+      <c r="E14" s="22">
+        <v>2016</v>
+      </c>
+      <c r="F14" s="21">
+        <v>3</v>
+      </c>
+      <c r="G14" s="21">
+        <v>3</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
+        <v>1</v>
+      </c>
+      <c r="J14" s="21">
         <v>32</v>
       </c>
-      <c r="K14" s="24">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10" t="s">
+      <c r="K14" s="23">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>2</v>
-      </c>
-      <c r="R14" s="4">
-        <v>2016</v>
-      </c>
-      <c r="S14" s="5">
-        <v>3</v>
-      </c>
-      <c r="T14" s="5">
-        <v>3</v>
-      </c>
-      <c r="U14" s="5">
-        <v>0</v>
-      </c>
-      <c r="V14" s="5">
-        <v>2</v>
-      </c>
-      <c r="W14" s="5">
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>2</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2016</v>
+      </c>
+      <c r="S14" s="4">
+        <v>3</v>
+      </c>
+      <c r="T14" s="4">
+        <v>3</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>2</v>
+      </c>
+      <c r="W14" s="4">
         <v>42</v>
       </c>
-      <c r="X14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA14" s="1" t="s">
+      <c r="X14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AB14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>2016</v>
-      </c>
-      <c r="AE14" s="3">
+      <c r="AB14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>2016</v>
+      </c>
+      <c r="AE14" s="14">
         <v>4</v>
       </c>
-      <c r="AF14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="3">
-        <v>2</v>
-      </c>
-      <c r="AH14" s="3">
-        <v>2</v>
-      </c>
-      <c r="AI14" s="3">
+      <c r="AF14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="14">
         <v>40</v>
       </c>
-      <c r="AJ14" s="34">
+      <c r="AJ14" s="15">
         <v>10000</v>
       </c>
-      <c r="AK14" s="38">
+      <c r="AK14" s="37">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="15.75" thickBot="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="26">
-        <v>1</v>
-      </c>
-      <c r="D15" s="26">
-        <v>2</v>
-      </c>
-      <c r="E15" s="27">
-        <v>2016</v>
-      </c>
-      <c r="F15" s="26">
-        <v>3</v>
-      </c>
-      <c r="G15" s="26">
-        <v>1</v>
-      </c>
-      <c r="H15" s="26">
-        <v>3</v>
-      </c>
-      <c r="I15" s="26">
-        <v>2</v>
-      </c>
-      <c r="J15" s="26">
+      <c r="C15" s="25">
+        <v>1</v>
+      </c>
+      <c r="D15" s="25">
+        <v>2</v>
+      </c>
+      <c r="E15" s="26">
+        <v>2016</v>
+      </c>
+      <c r="F15" s="25">
+        <v>3</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="25">
+        <v>3</v>
+      </c>
+      <c r="I15" s="25">
+        <v>2</v>
+      </c>
+      <c r="J15" s="25">
         <v>34</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="27">
         <v>9000</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P15" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>3</v>
-      </c>
-      <c r="R15" s="4">
-        <v>2016</v>
-      </c>
-      <c r="S15" s="5">
-        <v>3</v>
-      </c>
-      <c r="T15" s="5">
-        <v>3</v>
-      </c>
-      <c r="U15" s="5">
-        <v>0</v>
-      </c>
-      <c r="V15" s="5">
-        <v>1</v>
-      </c>
-      <c r="W15" s="5">
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3">
+        <v>2016</v>
+      </c>
+      <c r="S15" s="4">
+        <v>3</v>
+      </c>
+      <c r="T15" s="4">
+        <v>3</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>1</v>
+      </c>
+      <c r="W15" s="4">
         <v>18</v>
       </c>
-      <c r="X15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA15" s="21" t="s">
+      <c r="X15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="22">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="23">
-        <v>2016</v>
-      </c>
-      <c r="AE15" s="22">
+      <c r="AB15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="22">
+        <v>2016</v>
+      </c>
+      <c r="AE15" s="21">
         <v>4</v>
       </c>
-      <c r="AF15" s="22">
-        <v>3</v>
-      </c>
-      <c r="AG15" s="22">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="22">
-        <v>2</v>
-      </c>
-      <c r="AI15" s="22">
+      <c r="AF15" s="21">
+        <v>3</v>
+      </c>
+      <c r="AG15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="21">
         <v>32</v>
       </c>
-      <c r="AJ15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="39">
+      <c r="AJ15" s="34">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="15.75" thickBot="1">
-      <c r="O16" s="21" t="s">
+      <c r="O16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>1</v>
-      </c>
-      <c r="R16" s="23">
-        <v>2016</v>
-      </c>
-      <c r="S16" s="22">
-        <v>3</v>
-      </c>
-      <c r="T16" s="22">
-        <v>3</v>
-      </c>
-      <c r="U16" s="22">
-        <v>0</v>
-      </c>
-      <c r="V16" s="22">
-        <v>1</v>
-      </c>
-      <c r="W16" s="22">
+      <c r="P16" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>1</v>
+      </c>
+      <c r="R16" s="22">
+        <v>2016</v>
+      </c>
+      <c r="S16" s="21">
+        <v>3</v>
+      </c>
+      <c r="T16" s="21">
+        <v>3</v>
+      </c>
+      <c r="U16" s="21">
+        <v>0</v>
+      </c>
+      <c r="V16" s="21">
+        <v>1</v>
+      </c>
+      <c r="W16" s="21">
         <v>32</v>
       </c>
-      <c r="X16" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="24">
-        <v>2</v>
-      </c>
-      <c r="AA16" s="25" t="s">
+      <c r="X16" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AB16" s="26">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="26">
-        <v>2</v>
-      </c>
-      <c r="AD16" s="27">
-        <v>2016</v>
-      </c>
-      <c r="AE16" s="26">
+      <c r="AB16" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="25">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="26">
+        <v>2016</v>
+      </c>
+      <c r="AE16" s="25">
         <v>4</v>
       </c>
-      <c r="AF16" s="26">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="26">
-        <v>2</v>
-      </c>
-      <c r="AH16" s="26">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="26">
+      <c r="AF16" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="25">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="25">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="25">
         <v>34</v>
       </c>
-      <c r="AJ16" s="36">
+      <c r="AJ16" s="35">
         <v>-9</v>
       </c>
-      <c r="AK16" s="40">
+      <c r="AK16" s="39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="15.75" thickBot="1">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="O17" s="25" t="s">
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="O17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="26">
-        <v>2</v>
-      </c>
-      <c r="R17" s="27">
-        <v>2016</v>
-      </c>
-      <c r="S17" s="26">
-        <v>3</v>
-      </c>
-      <c r="T17" s="26">
-        <v>1</v>
-      </c>
-      <c r="U17" s="26">
-        <v>3</v>
-      </c>
-      <c r="V17" s="26">
-        <v>2</v>
-      </c>
-      <c r="W17" s="26">
+      <c r="P17" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>2</v>
+      </c>
+      <c r="R17" s="26">
+        <v>2016</v>
+      </c>
+      <c r="S17" s="25">
+        <v>3</v>
+      </c>
+      <c r="T17" s="25">
+        <v>1</v>
+      </c>
+      <c r="U17" s="25">
+        <v>3</v>
+      </c>
+      <c r="V17" s="25">
+        <v>2</v>
+      </c>
+      <c r="W17" s="25">
         <v>34</v>
       </c>
-      <c r="X17" s="28">
+      <c r="X17" s="27">
         <v>9000</v>
       </c>
-      <c r="Y17" s="28">
+      <c r="Y17" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="15.75" thickBot="1">
-      <c r="B18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="18" t="s">
+      <c r="B18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="42">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="42">
-        <v>1</v>
-      </c>
-      <c r="R18" s="42">
-        <v>2016</v>
-      </c>
-      <c r="S18" s="42">
+      <c r="P18" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="41">
+        <v>1</v>
+      </c>
+      <c r="R18" s="41">
+        <v>2016</v>
+      </c>
+      <c r="S18" s="41">
         <v>4</v>
       </c>
-      <c r="T18" s="42">
-        <v>1</v>
-      </c>
-      <c r="U18" s="42">
-        <v>3</v>
-      </c>
-      <c r="V18" s="42">
-        <v>1</v>
-      </c>
-      <c r="W18" s="42">
+      <c r="T18" s="41">
+        <v>1</v>
+      </c>
+      <c r="U18" s="41">
+        <v>3</v>
+      </c>
+      <c r="V18" s="41">
+        <v>1</v>
+      </c>
+      <c r="W18" s="41">
         <v>42</v>
       </c>
-      <c r="X18" s="43">
+      <c r="X18" s="42">
         <v>15000</v>
       </c>
-      <c r="Y18" s="37">
+      <c r="Y18" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="15.75" thickBot="1">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="42">
-        <v>1</v>
-      </c>
-      <c r="D19" s="42">
-        <v>1</v>
-      </c>
-      <c r="E19" s="42">
-        <v>2016</v>
-      </c>
-      <c r="F19" s="42">
+      <c r="C19" s="41">
+        <v>1</v>
+      </c>
+      <c r="D19" s="41">
+        <v>1</v>
+      </c>
+      <c r="E19" s="41">
+        <v>2016</v>
+      </c>
+      <c r="F19" s="41">
         <v>4</v>
       </c>
-      <c r="G19" s="42">
-        <v>1</v>
-      </c>
-      <c r="H19" s="42">
-        <v>3</v>
-      </c>
-      <c r="I19" s="42">
-        <v>1</v>
-      </c>
-      <c r="J19" s="42">
+      <c r="G19" s="41">
+        <v>1</v>
+      </c>
+      <c r="H19" s="41">
+        <v>3</v>
+      </c>
+      <c r="I19" s="41">
+        <v>1</v>
+      </c>
+      <c r="J19" s="41">
         <v>42</v>
       </c>
-      <c r="K19" s="44">
+      <c r="K19" s="43">
         <v>15000</v>
       </c>
-      <c r="O19" s="12" t="s">
+      <c r="O19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>2</v>
-      </c>
-      <c r="R19" s="3">
-        <v>2016</v>
-      </c>
-      <c r="S19" s="3">
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2">
+        <v>2016</v>
+      </c>
+      <c r="S19" s="2">
         <v>4</v>
       </c>
-      <c r="T19" s="3">
-        <v>1</v>
-      </c>
-      <c r="U19" s="3">
-        <v>2</v>
-      </c>
-      <c r="V19" s="3">
-        <v>2</v>
-      </c>
-      <c r="W19" s="3">
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2">
+        <v>2</v>
+      </c>
+      <c r="V19" s="2">
+        <v>2</v>
+      </c>
+      <c r="W19" s="2">
         <v>40</v>
       </c>
-      <c r="X19" s="34">
+      <c r="X19" s="33">
         <v>10000</v>
       </c>
-      <c r="Y19" s="38">
+      <c r="Y19" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="15.75" thickBot="1">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2016</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F20" s="2">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
         <v>40</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="29">
         <v>10000</v>
       </c>
-      <c r="O20" s="21" t="s">
+      <c r="O20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P20" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="22">
-        <v>1</v>
-      </c>
-      <c r="R20" s="23">
-        <v>2016</v>
-      </c>
-      <c r="S20" s="22">
+      <c r="P20" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>1</v>
+      </c>
+      <c r="R20" s="22">
+        <v>2016</v>
+      </c>
+      <c r="S20" s="21">
         <v>4</v>
       </c>
-      <c r="T20" s="22">
-        <v>3</v>
-      </c>
-      <c r="U20" s="22">
-        <v>0</v>
-      </c>
-      <c r="V20" s="22">
-        <v>2</v>
-      </c>
-      <c r="W20" s="22">
+      <c r="T20" s="21">
+        <v>3</v>
+      </c>
+      <c r="U20" s="21">
+        <v>0</v>
+      </c>
+      <c r="V20" s="21">
+        <v>2</v>
+      </c>
+      <c r="W20" s="21">
         <v>32</v>
       </c>
-      <c r="X20" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="39">
+      <c r="X20" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="15.75" thickBot="1">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="22">
-        <v>1</v>
-      </c>
-      <c r="D21" s="22">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
-        <v>2016</v>
-      </c>
-      <c r="F21" s="22">
+      <c r="C21" s="21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="22">
+        <v>2016</v>
+      </c>
+      <c r="F21" s="21">
         <v>4</v>
       </c>
-      <c r="G21" s="22">
-        <v>3</v>
-      </c>
-      <c r="H21" s="22">
-        <v>0</v>
-      </c>
-      <c r="I21" s="22">
-        <v>2</v>
-      </c>
-      <c r="J21" s="22">
+      <c r="G21" s="21">
+        <v>3</v>
+      </c>
+      <c r="H21" s="21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="21">
+        <v>2</v>
+      </c>
+      <c r="J21" s="21">
         <v>32</v>
       </c>
-      <c r="K21" s="24">
-        <v>0</v>
-      </c>
-      <c r="O21" s="25" t="s">
+      <c r="K21" s="23">
+        <v>0</v>
+      </c>
+      <c r="O21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="P21" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="26">
-        <v>2</v>
-      </c>
-      <c r="R21" s="27">
-        <v>2016</v>
-      </c>
-      <c r="S21" s="26">
+      <c r="P21" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>2</v>
+      </c>
+      <c r="R21" s="26">
+        <v>2016</v>
+      </c>
+      <c r="S21" s="25">
         <v>4</v>
       </c>
-      <c r="T21" s="26">
-        <v>1</v>
-      </c>
-      <c r="U21" s="26">
-        <v>2</v>
-      </c>
-      <c r="V21" s="26">
-        <v>1</v>
-      </c>
-      <c r="W21" s="26">
+      <c r="T21" s="25">
+        <v>1</v>
+      </c>
+      <c r="U21" s="25">
+        <v>2</v>
+      </c>
+      <c r="V21" s="25">
+        <v>1</v>
+      </c>
+      <c r="W21" s="25">
         <v>34</v>
       </c>
-      <c r="X21" s="36">
+      <c r="X21" s="35">
         <v>-9</v>
       </c>
-      <c r="Y21" s="40">
+      <c r="Y21" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="15.75" thickBot="1">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="26">
-        <v>1</v>
-      </c>
-      <c r="D22" s="26">
-        <v>2</v>
-      </c>
-      <c r="E22" s="27">
-        <v>2016</v>
-      </c>
-      <c r="F22" s="26">
+      <c r="C22" s="25">
+        <v>1</v>
+      </c>
+      <c r="D22" s="25">
+        <v>2</v>
+      </c>
+      <c r="E22" s="26">
+        <v>2016</v>
+      </c>
+      <c r="F22" s="25">
         <v>4</v>
       </c>
-      <c r="G22" s="26">
-        <v>1</v>
-      </c>
-      <c r="H22" s="26">
-        <v>2</v>
-      </c>
-      <c r="I22" s="26">
-        <v>1</v>
-      </c>
-      <c r="J22" s="26">
+      <c r="G22" s="25">
+        <v>1</v>
+      </c>
+      <c r="H22" s="25">
+        <v>2</v>
+      </c>
+      <c r="I22" s="25">
+        <v>1</v>
+      </c>
+      <c r="J22" s="25">
         <v>34</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="27">
         <v>-9</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="17.25" customHeight="1">
-      <c r="U23" s="53" t="s">
+      <c r="U23" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="53"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
     </row>
     <row r="28" spans="1:33" ht="15.75" thickBot="1"/>
     <row r="29" spans="1:33" ht="15.75" thickBot="1">
-      <c r="O29" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="P29" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="R29" s="18" t="s">
+      <c r="O29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="18" t="s">
+      <c r="S29" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="18" t="s">
+      <c r="T29" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="U29" s="18" t="s">
+      <c r="U29" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="V29" s="18" t="s">
+      <c r="V29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="18" t="s">
+      <c r="W29" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="X29" s="19" t="s">
+      <c r="X29" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Y29" s="33" t="s">
+      <c r="Y29" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z29" s="18" t="s">
+      <c r="Z29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AA29" s="18" t="s">
+      <c r="AA29" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AB29" s="18" t="s">
+      <c r="AB29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AC29" s="18" t="s">
+      <c r="AC29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AD29" s="18" t="s">
+      <c r="AD29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AE29" s="18" t="s">
+      <c r="AE29" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AF29" s="19" t="s">
+      <c r="AF29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AG29" s="50" t="s">
+      <c r="AG29" s="49" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="15.75" thickBot="1">
-      <c r="O30" s="6" t="s">
+      <c r="O30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P30" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>1</v>
-      </c>
-      <c r="R30" s="8">
-        <v>2016</v>
-      </c>
-      <c r="S30" s="7">
-        <v>2</v>
-      </c>
-      <c r="T30" s="7">
-        <v>1</v>
-      </c>
-      <c r="U30" s="7">
-        <v>2</v>
-      </c>
-      <c r="V30" s="7">
-        <v>1</v>
-      </c>
-      <c r="W30" s="7">
+      <c r="P30" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>1</v>
+      </c>
+      <c r="R30" s="7">
+        <v>2016</v>
+      </c>
+      <c r="S30" s="6">
+        <v>2</v>
+      </c>
+      <c r="T30" s="6">
+        <v>1</v>
+      </c>
+      <c r="U30" s="6">
+        <v>2</v>
+      </c>
+      <c r="V30" s="6">
+        <v>1</v>
+      </c>
+      <c r="W30" s="6">
         <v>53</v>
       </c>
-      <c r="X30" s="9">
+      <c r="X30" s="8">
         <v>6000</v>
       </c>
-      <c r="Y30" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="8">
-        <v>2016</v>
-      </c>
-      <c r="AA30" s="7">
-        <v>3</v>
-      </c>
-      <c r="AB30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="7">
-        <v>3</v>
-      </c>
-      <c r="AD30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="7">
+      <c r="Y30" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>2016</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="6">
         <v>53</v>
       </c>
-      <c r="AF30" s="45">
+      <c r="AF30" s="44">
         <v>8000</v>
       </c>
-      <c r="AG30" s="47" t="s">
+      <c r="AG30" s="46" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="15.75" thickBot="1">
-      <c r="O31" s="10" t="s">
+      <c r="O31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P31" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>2</v>
-      </c>
-      <c r="R31" s="4">
-        <v>2016</v>
-      </c>
-      <c r="S31" s="5">
-        <v>2</v>
-      </c>
-      <c r="T31" s="5">
-        <v>3</v>
-      </c>
-      <c r="U31" s="5">
-        <v>0</v>
-      </c>
-      <c r="V31" s="5">
-        <v>2</v>
-      </c>
-      <c r="W31" s="5">
+      <c r="P31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>2</v>
+      </c>
+      <c r="R31" s="3">
+        <v>2016</v>
+      </c>
+      <c r="S31" s="4">
+        <v>2</v>
+      </c>
+      <c r="T31" s="4">
+        <v>3</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0</v>
+      </c>
+      <c r="V31" s="4">
+        <v>2</v>
+      </c>
+      <c r="W31" s="4">
         <v>42</v>
       </c>
-      <c r="X31" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="4">
-        <v>2016</v>
-      </c>
-      <c r="AA31" s="5">
-        <v>3</v>
-      </c>
-      <c r="AB31" s="5">
-        <v>3</v>
-      </c>
-      <c r="AC31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="5">
-        <v>2</v>
-      </c>
-      <c r="AE31" s="5">
+      <c r="X31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>2016</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE31" s="4">
         <v>42</v>
       </c>
-      <c r="AF31" s="46">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="48" t="s">
+      <c r="AF31" s="45">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="47" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="15.75" thickBot="1">
-      <c r="O32" s="10" t="s">
+      <c r="O32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P32" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>3</v>
-      </c>
-      <c r="R32" s="4">
-        <v>2016</v>
-      </c>
-      <c r="S32" s="5">
-        <v>2</v>
-      </c>
-      <c r="T32" s="5">
-        <v>3</v>
-      </c>
-      <c r="U32" s="5">
-        <v>0</v>
-      </c>
-      <c r="V32" s="5">
-        <v>1</v>
-      </c>
-      <c r="W32" s="5">
+      <c r="P32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
+        <v>2016</v>
+      </c>
+      <c r="S32" s="4">
+        <v>2</v>
+      </c>
+      <c r="T32" s="4">
+        <v>3</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0</v>
+      </c>
+      <c r="V32" s="4">
+        <v>1</v>
+      </c>
+      <c r="W32" s="4">
         <v>18</v>
       </c>
-      <c r="X32" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="4">
-        <v>2016</v>
-      </c>
-      <c r="AA32" s="5">
-        <v>3</v>
-      </c>
-      <c r="AB32" s="5">
-        <v>3</v>
-      </c>
-      <c r="AC32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="5">
+      <c r="X32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>2016</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="4">
         <v>18</v>
       </c>
-      <c r="AF32" s="46">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="48" t="s">
+      <c r="AF32" s="45">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="47" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="15:33" ht="15.75" thickBot="1">
-      <c r="O33" s="21" t="s">
+      <c r="O33" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P33" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="22">
-        <v>1</v>
-      </c>
-      <c r="R33" s="23">
-        <v>2016</v>
-      </c>
-      <c r="S33" s="22">
-        <v>3</v>
-      </c>
-      <c r="T33" s="22">
-        <v>3</v>
-      </c>
-      <c r="U33" s="22">
-        <v>0</v>
-      </c>
-      <c r="V33" s="22">
-        <v>1</v>
-      </c>
-      <c r="W33" s="22">
+      <c r="P33" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>1</v>
+      </c>
+      <c r="R33" s="22">
+        <v>2016</v>
+      </c>
+      <c r="S33" s="21">
+        <v>3</v>
+      </c>
+      <c r="T33" s="21">
+        <v>3</v>
+      </c>
+      <c r="U33" s="21">
+        <v>0</v>
+      </c>
+      <c r="V33" s="21">
+        <v>1</v>
+      </c>
+      <c r="W33" s="21">
         <v>32</v>
       </c>
-      <c r="X33" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="24">
-        <v>2</v>
-      </c>
-      <c r="Z33" s="23">
-        <v>2016</v>
-      </c>
-      <c r="AA33" s="22">
+      <c r="X33" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z33" s="22">
+        <v>2016</v>
+      </c>
+      <c r="AA33" s="21">
         <v>4</v>
       </c>
-      <c r="AB33" s="22">
-        <v>3</v>
-      </c>
-      <c r="AC33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="22">
-        <v>2</v>
-      </c>
-      <c r="AE33" s="22">
+      <c r="AB33" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="21">
+        <v>2</v>
+      </c>
+      <c r="AE33" s="21">
         <v>32</v>
       </c>
-      <c r="AF33" s="35">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="48" t="s">
+      <c r="AF33" s="34">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="47" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="15:33" ht="15.75" thickBot="1">
-      <c r="O34" s="25" t="s">
+      <c r="O34" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="P34" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="26">
-        <v>2</v>
-      </c>
-      <c r="R34" s="27">
-        <v>2016</v>
-      </c>
-      <c r="S34" s="26">
-        <v>3</v>
-      </c>
-      <c r="T34" s="26">
-        <v>1</v>
-      </c>
-      <c r="U34" s="26">
-        <v>3</v>
-      </c>
-      <c r="V34" s="26">
-        <v>2</v>
-      </c>
-      <c r="W34" s="26">
+      <c r="P34" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="25">
+        <v>2</v>
+      </c>
+      <c r="R34" s="26">
+        <v>2016</v>
+      </c>
+      <c r="S34" s="25">
+        <v>3</v>
+      </c>
+      <c r="T34" s="25">
+        <v>1</v>
+      </c>
+      <c r="U34" s="25">
+        <v>3</v>
+      </c>
+      <c r="V34" s="25">
+        <v>2</v>
+      </c>
+      <c r="W34" s="25">
         <v>34</v>
       </c>
-      <c r="X34" s="28">
+      <c r="X34" s="27">
         <v>9000</v>
       </c>
-      <c r="Y34" s="28">
-        <v>2</v>
-      </c>
-      <c r="Z34" s="27">
-        <v>2016</v>
-      </c>
-      <c r="AA34" s="26">
+      <c r="Y34" s="27">
+        <v>2</v>
+      </c>
+      <c r="Z34" s="26">
+        <v>2016</v>
+      </c>
+      <c r="AA34" s="25">
         <v>4</v>
       </c>
-      <c r="AB34" s="26">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="26">
-        <v>2</v>
-      </c>
-      <c r="AD34" s="26">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="26">
+      <c r="AB34" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="25">
+        <v>2</v>
+      </c>
+      <c r="AD34" s="25">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="25">
         <v>34</v>
       </c>
-      <c r="AF34" s="36">
+      <c r="AF34" s="35">
         <v>-9</v>
       </c>
-      <c r="AG34" s="49" t="s">
+      <c r="AG34" s="48" t="s">
         <v>32</v>
       </c>
     </row>
